--- a/docs/source/_files/model/INCOME_DATAMODEL.xlsx
+++ b/docs/source/_files/model/INCOME_DATAMODEL.xlsx
@@ -12,22 +12,25 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DIMS" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MEASURES" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATTRS" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCM_RVN_ENUM" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_FRQNCY_ENUM" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATTR_OBSRVTN_STTS_ENUM" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATTR_CNFDNTLTY_STTS_ENUM" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCM_EXPNS_ENUM" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATE" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NON_NEGATIVE_FLOAT" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCM_RVN_ENUM" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_FRQNCY_ENUM" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATTR_OBSRVTN_STTS_ENUM" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATTR_CNFDNTLTY_STTS_ENUM" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCM_EXPNS_ENUM" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DSDS'!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DIMS'!$A$1:$C$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'MEASURES'!$A$1:$C$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ATTRS'!$A$1:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'INCM_RVN_ENUM'!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'GEN_FRQNCY_ENUM'!$A$1:$C$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'ATTR_OBSRVTN_STTS_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'ATTR_CNFDNTLTY_STTS_ENUM'!$A$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'INCM_EXPNS_ENUM'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'INCM_RVN_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'GEN_FRQNCY_ENUM'!$A$1:$C$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'ATTR_OBSRVTN_STTS_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'ATTR_CNFDNTLTY_STTS_ENUM'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'INCM_EXPNS_ENUM'!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -36,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -76,6 +79,12 @@
       <b val="1"/>
       <color rgb="0093a1a1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="0093a1a1"/>
+      <sz val="18"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -136,7 +145,7 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -159,8 +168,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -174,35 +189,41 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left" vertical="center"/>
@@ -211,7 +232,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
     <cellStyle name="Fill2_FontOrange_Size14" xfId="1" hidden="0"/>
     <cellStyle name="Fill02_FontCyan_Size14" xfId="2" hidden="0"/>
@@ -220,6 +241,8 @@
     <cellStyle name="Fill02_Font1_Size14" xfId="5" hidden="0"/>
     <cellStyle name="Fill3_Font1_Size12" xfId="6" hidden="0"/>
     <cellStyle name="Fill2_Font1_Size12" xfId="7" hidden="0"/>
+    <cellStyle name="Fill02_Font1_Size18" xfId="8" hidden="0"/>
+    <cellStyle name="Fill2_Font1_Size14" xfId="9" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -860,6 +883,829 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6.5" customWidth="1" min="1" max="1"/>
+    <col width="29.9" customWidth="1" min="2" max="2"/>
+    <col width="85" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42" customHeight="1">
+      <c r="A1" s="2">
+        <f>HYPERLINK("#DSDS!A1", "ID")</f>
+        <v/>
+      </c>
+      <c r="B1" s="3">
+        <f>HYPERLINK("#MEASURES!A1", "NAME")</f>
+        <v/>
+      </c>
+      <c r="C1" s="10">
+        <f>HYPERLINK("#DIMS!A1", "DESCRIPTION")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>Reset</t>
+        </is>
+      </c>
+      <c r="C2" s="17" t="inlineStr">
+        <is>
+          <t>Reset value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="36" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B3" s="14" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="C3" s="18" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="36" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>Daily - businessweek</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t>Daily - businessweek</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="C5" s="18" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="36" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="C7" s="18" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="36" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B8" s="12" t="inlineStr">
+        <is>
+          <t>Minutely</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>Minutely</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="36" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C9" s="18" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="36" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B10" s="12" t="inlineStr">
+        <is>
+          <t>Half-yearly, semester</t>
+        </is>
+      </c>
+      <c r="C10" s="17" t="inlineStr">
+        <is>
+          <t>Half-yearly, semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="36" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="C11" s="18" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="36" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B12" s="12" t="inlineStr">
+        <is>
+          <t>Biennial</t>
+        </is>
+      </c>
+      <c r="C12" s="17" t="inlineStr">
+        <is>
+          <t>Biennial</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="36" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>Triennial</t>
+        </is>
+      </c>
+      <c r="C13" s="18" t="inlineStr">
+        <is>
+          <t>Triennial</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="36" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B14" s="12" t="inlineStr">
+        <is>
+          <t>Quadrennial</t>
+        </is>
+      </c>
+      <c r="C14" s="17" t="inlineStr">
+        <is>
+          <t>Quadrennial</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Quinquennial</t>
+        </is>
+      </c>
+      <c r="C15" s="18" t="inlineStr">
+        <is>
+          <t>Quinquennial</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="36" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+      <c r="B16" s="12" t="inlineStr">
+        <is>
+          <t>Decennial</t>
+        </is>
+      </c>
+      <c r="C16" s="17" t="inlineStr">
+        <is>
+          <t>Decennial</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="36" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>A20</t>
+        </is>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>Bidecennial</t>
+        </is>
+      </c>
+      <c r="C17" s="18" t="inlineStr">
+        <is>
+          <t>Bidecennial</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="36" customHeight="1">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>A30</t>
+        </is>
+      </c>
+      <c r="B18" s="12" t="inlineStr">
+        <is>
+          <t>Tridecennial</t>
+        </is>
+      </c>
+      <c r="C18" s="17" t="inlineStr">
+        <is>
+          <t>Tridecennial</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="36" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>A_3</t>
+        </is>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>Three times a year</t>
+        </is>
+      </c>
+      <c r="C19" s="18" t="inlineStr">
+        <is>
+          <t>Three times a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="36" customHeight="1">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="B20" s="12" t="inlineStr">
+        <is>
+          <t>Bimonthly</t>
+        </is>
+      </c>
+      <c r="C20" s="17" t="inlineStr">
+        <is>
+          <t>Bimonthly</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="36" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>M_2</t>
+        </is>
+      </c>
+      <c r="B21" s="14" t="inlineStr">
+        <is>
+          <t>Semimonthly</t>
+        </is>
+      </c>
+      <c r="C21" s="18" t="inlineStr">
+        <is>
+          <t>Semimonthly</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="36" customHeight="1">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>M_3</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="inlineStr">
+        <is>
+          <t>Three times a month</t>
+        </is>
+      </c>
+      <c r="C22" s="17" t="inlineStr">
+        <is>
+          <t>Three times a month</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="36" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>W2</t>
+        </is>
+      </c>
+      <c r="B23" s="14" t="inlineStr">
+        <is>
+          <t>Biweekly</t>
+        </is>
+      </c>
+      <c r="C23" s="18" t="inlineStr">
+        <is>
+          <t>Biweekly</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="36" customHeight="1">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="B24" s="12" t="inlineStr">
+        <is>
+          <t>Triweekly</t>
+        </is>
+      </c>
+      <c r="C24" s="17" t="inlineStr">
+        <is>
+          <t>Triweekly</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="36" customHeight="1">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>W4</t>
+        </is>
+      </c>
+      <c r="B25" s="14" t="inlineStr">
+        <is>
+          <t>Four-weekly</t>
+        </is>
+      </c>
+      <c r="C25" s="18" t="inlineStr">
+        <is>
+          <t>Four-weekly</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="36" customHeight="1">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>W_2</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="inlineStr">
+        <is>
+          <t>Semiweekly</t>
+        </is>
+      </c>
+      <c r="C26" s="17" t="inlineStr">
+        <is>
+          <t>Semiweekly</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="36" customHeight="1">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>W_3</t>
+        </is>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>Three times a week</t>
+        </is>
+      </c>
+      <c r="C27" s="18" t="inlineStr">
+        <is>
+          <t>Three times a week</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="36" customHeight="1">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>D_2</t>
+        </is>
+      </c>
+      <c r="B28" s="12" t="inlineStr">
+        <is>
+          <t>Twice a day</t>
+        </is>
+      </c>
+      <c r="C28" s="17" t="inlineStr">
+        <is>
+          <t>Twice a day</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="36" customHeight="1">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B29" s="14" t="inlineStr">
+        <is>
+          <t>Bihourly</t>
+        </is>
+      </c>
+      <c r="C29" s="18" t="inlineStr">
+        <is>
+          <t>Bihourly</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="36" customHeight="1">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="B30" s="12" t="inlineStr">
+        <is>
+          <t>Trihourly</t>
+        </is>
+      </c>
+      <c r="C30" s="17" t="inlineStr">
+        <is>
+          <t>Trihourly</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="36" customHeight="1">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B31" s="14" t="inlineStr">
+        <is>
+          <t>Irregular</t>
+        </is>
+      </c>
+      <c r="C31" s="18" t="inlineStr">
+        <is>
+          <t>Irregular</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="36" customHeight="1">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>OA</t>
+        </is>
+      </c>
+      <c r="B32" s="12" t="inlineStr">
+        <is>
+          <t>Occasional annual</t>
+        </is>
+      </c>
+      <c r="C32" s="17" t="inlineStr">
+        <is>
+          <t>Occasional annual</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="36" customHeight="1">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+      <c r="B33" s="14" t="inlineStr">
+        <is>
+          <t>Occasional monthly</t>
+        </is>
+      </c>
+      <c r="C33" s="18" t="inlineStr">
+        <is>
+          <t>Occasional monthly</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="36" customHeight="1">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>_O</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C34" s="17" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="36" customHeight="1">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+      <c r="B35" s="14" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="C35" s="18" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="36" customHeight="1">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>_Z</t>
+        </is>
+      </c>
+      <c r="B36" s="12" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="C36" s="17" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C36"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5.2" customWidth="1" min="1" max="1"/>
+    <col width="44.2" customWidth="1" min="2" max="2"/>
+    <col width="85" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42" customHeight="1">
+      <c r="A1" s="2">
+        <f>HYPERLINK("#DSDS!A1", "ID")</f>
+        <v/>
+      </c>
+      <c r="B1" s="10">
+        <f>HYPERLINK("#MEASURES!A1", "NAME")</f>
+        <v/>
+      </c>
+      <c r="C1" s="10">
+        <f>HYPERLINK("#DIMS!A1", "DESCRIPTION")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" s="17" t="inlineStr">
+        <is>
+          <t>Normal value</t>
+        </is>
+      </c>
+      <c r="C2" s="17" t="inlineStr">
+        <is>
+          <t>Normal value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="36" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>Estimated value</t>
+        </is>
+      </c>
+      <c r="C3" s="18" t="inlineStr">
+        <is>
+          <t>Estimated value</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="36" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B4" s="17" t="inlineStr">
+        <is>
+          <t>Missing value; data cannot exist</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t>Missing value; data cannot exist</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B5" s="18" t="inlineStr">
+        <is>
+          <t>Missing value</t>
+        </is>
+      </c>
+      <c r="C5" s="18" t="inlineStr">
+        <is>
+          <t>Missing value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5.2" customWidth="1" min="1" max="1"/>
+    <col width="49.4" customWidth="1" min="2" max="2"/>
+    <col width="85" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42" customHeight="1">
+      <c r="A1" s="2">
+        <f>HYPERLINK("#DSDS!A1", "ID")</f>
+        <v/>
+      </c>
+      <c r="B1" s="10">
+        <f>HYPERLINK("#MEASURES!A1", "NAME")</f>
+        <v/>
+      </c>
+      <c r="C1" s="10">
+        <f>HYPERLINK("#DIMS!A1", "DESCRIPTION")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B2" s="17" t="inlineStr">
+        <is>
+          <t>Confidential statistical information</t>
+        </is>
+      </c>
+      <c r="C2" s="17" t="inlineStr">
+        <is>
+          <t>Confidential statistical information</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="36" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>Free (free for publication)</t>
+        </is>
+      </c>
+      <c r="C3" s="18" t="inlineStr">
+        <is>
+          <t>Free (free for publication)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -881,11 +1727,11 @@
         <f>HYPERLINK("#DSDS!A1", "ID")</f>
         <v/>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="10">
         <f>HYPERLINK("#MEASURES!A1", "NAME")</f>
         <v/>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="10">
         <f>HYPERLINK("#DIMS!A1", "DESCRIPTION")</f>
         <v/>
       </c>
@@ -896,12 +1742,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>Reset</t>
         </is>
       </c>
-      <c r="C2" s="15" t="inlineStr">
+      <c r="C2" s="17" t="inlineStr">
         <is>
           <t>Reset value</t>
         </is>
@@ -913,12 +1759,12 @@
           <t>E1</t>
         </is>
       </c>
-      <c r="B3" s="16" t="inlineStr">
+      <c r="B3" s="18" t="inlineStr">
         <is>
           <t>Interest paid</t>
         </is>
       </c>
-      <c r="C3" s="16" t="inlineStr">
+      <c r="C3" s="18" t="inlineStr">
         <is>
           <t>Interest paid</t>
         </is>
@@ -930,12 +1776,12 @@
           <t>E2</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B4" s="17" t="inlineStr">
         <is>
           <t>Rents paid</t>
         </is>
       </c>
-      <c r="C4" s="15" t="inlineStr">
+      <c r="C4" s="17" t="inlineStr">
         <is>
           <t>Rents paid</t>
         </is>
@@ -947,12 +1793,12 @@
           <t>E3</t>
         </is>
       </c>
-      <c r="B5" s="16" t="inlineStr">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Financial fees/services paid by the fund (mostly for buying and selling financial assets)</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
+      <c r="C5" s="18" t="inlineStr">
         <is>
           <t>Financial fees/services paid by the fund (mostly for buying and selling financial assets)</t>
         </is>
@@ -964,12 +1810,12 @@
           <t>E4</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B6" s="17" t="inlineStr">
         <is>
           <t>Management fees</t>
         </is>
       </c>
-      <c r="C6" s="15" t="inlineStr">
+      <c r="C6" s="17" t="inlineStr">
         <is>
           <t>Management fees</t>
         </is>
@@ -981,12 +1827,12 @@
           <t>E5</t>
         </is>
       </c>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Depository fees</t>
         </is>
       </c>
-      <c r="C7" s="16" t="inlineStr">
+      <c r="C7" s="18" t="inlineStr">
         <is>
           <t>Depository fees</t>
         </is>
@@ -998,12 +1844,12 @@
           <t>E6</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B8" s="17" t="inlineStr">
         <is>
           <t>Taxes paid (but not those of behalf of shareholders)</t>
         </is>
       </c>
-      <c r="C8" s="15" t="inlineStr">
+      <c r="C8" s="17" t="inlineStr">
         <is>
           <t>Taxes paid (but not those of behalf of shareholders)</t>
         </is>
@@ -1015,12 +1861,12 @@
           <t>E7</t>
         </is>
       </c>
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>wages</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
+      <c r="C9" s="18" t="inlineStr">
         <is>
           <t>wages</t>
         </is>
@@ -1032,12 +1878,12 @@
           <t>E8</t>
         </is>
       </c>
-      <c r="B10" s="15" t="inlineStr">
+      <c r="B10" s="17" t="inlineStr">
         <is>
           <t>bad debt expense</t>
         </is>
       </c>
-      <c r="C10" s="15" t="inlineStr">
+      <c r="C10" s="17" t="inlineStr">
         <is>
           <t>bad debt expense</t>
         </is>
@@ -1049,12 +1895,12 @@
           <t>E9</t>
         </is>
       </c>
-      <c r="B11" s="16" t="inlineStr">
+      <c r="B11" s="18" t="inlineStr">
         <is>
           <t>bad loan expense</t>
         </is>
       </c>
-      <c r="C11" s="16" t="inlineStr">
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>bad loan expense</t>
         </is>
@@ -1066,12 +1912,12 @@
           <t>E10</t>
         </is>
       </c>
-      <c r="B12" s="15" t="inlineStr">
+      <c r="B12" s="17" t="inlineStr">
         <is>
           <t>Other fees and charges paid</t>
         </is>
       </c>
-      <c r="C12" s="15" t="inlineStr">
+      <c r="C12" s="17" t="inlineStr">
         <is>
           <t>Other fees and charges paid</t>
         </is>
@@ -1236,9 +2082,9 @@
           <t>IID</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
-        <is>
-          <t>ID</t>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>SHR</t>
         </is>
       </c>
     </row>
@@ -1270,7 +2116,7 @@
           <t>DT</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
@@ -1294,7 +2140,7 @@
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>EXPENSE</t>
         </is>
@@ -1304,14 +2150,14 @@
           <t>IID</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>ID</t>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>SHR</t>
         </is>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
-      <c r="A7" s="10" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>EXPENSE</t>
         </is>
@@ -1328,7 +2174,7 @@
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
-      <c r="A8" s="10" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>EXPENSE</t>
         </is>
@@ -1338,14 +2184,14 @@
           <t>DT</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>EXPENSE</t>
         </is>
@@ -1365,17 +2211,21 @@
   <autoFilter ref="A1:C9"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1431,7 +2281,7 @@
           <t>AMNT</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
@@ -1448,14 +2298,14 @@
           <t>EUR_AMNT</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>EXPENSE</t>
         </is>
@@ -1465,14 +2315,14 @@
           <t>AMNT</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>EXPENSE</t>
         </is>
@@ -1482,7 +2332,7 @@
           <t>EUR_AMNT</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>NON_NEGATIVE_FLOAT</t>
         </is>
@@ -1492,9 +2342,13 @@
   <autoFilter ref="A1:C5"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1540,7 +2394,7 @@
           <t>ATTRIBUTE</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
@@ -1567,12 +2421,12 @@
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
+      <c r="D2" s="11" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1594,12 +2448,12 @@
           <t>CONF</t>
         </is>
       </c>
-      <c r="D3" s="13" t="inlineStr">
+      <c r="D3" s="11" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E3" s="9" t="inlineStr">
+      <c r="E3" s="12" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1621,12 +2475,12 @@
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" s="11" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E4" s="12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1648,19 +2502,19 @@
           <t>CONF</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E5" s="12" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>EXPENSE</t>
         </is>
@@ -1675,19 +2529,19 @@
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="D6" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="E6" s="14" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
-      <c r="A7" s="10" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>EXPENSE</t>
         </is>
@@ -1702,19 +2556,19 @@
           <t>CONF</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
+      <c r="D7" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E7" s="11" t="inlineStr">
+      <c r="E7" s="14" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
-      <c r="A8" s="10" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>EXPENSE</t>
         </is>
@@ -1729,19 +2583,19 @@
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
+      <c r="D8" s="13" t="inlineStr">
         <is>
           <t>ATTR_OBSRVTN_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
+      <c r="E8" s="14" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>EXPENSE</t>
         </is>
@@ -1756,12 +2610,12 @@
           <t>CONF</t>
         </is>
       </c>
-      <c r="D9" s="14" t="inlineStr">
+      <c r="D9" s="13" t="inlineStr">
         <is>
           <t>ATTR_CNFDNTLTY_STTS_ENUM</t>
         </is>
       </c>
-      <c r="E9" s="11" t="inlineStr">
+      <c r="E9" s="14" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1797,6 +2651,1641 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="15">
+        <f>HYPERLINK("#DSDS!A1", "Description")</f>
+        <v/>
+      </c>
+      <c r="B1" s="15" t="n"/>
+      <c r="C1" s="15" t="n"/>
+      <c r="D1" s="15" t="n"/>
+      <c r="E1" s="15" t="n"/>
+      <c r="F1" s="15" t="n"/>
+      <c r="G1" s="15" t="n"/>
+      <c r="H1" s="15" t="n"/>
+      <c r="I1" s="15" t="n"/>
+      <c r="J1" s="15" t="n"/>
+      <c r="K1" s="15" t="n"/>
+      <c r="L1" s="15" t="n"/>
+      <c r="M1" s="15" t="n"/>
+      <c r="N1" s="15" t="n"/>
+      <c r="O1" s="15" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Identification code of a debt security.
+    type = string
+    regex = "^[IP][a-zA-z0-9_]+"
+    max_length = 32
+    The first available from the list below that
+    satisfies the constraints above is to be used to identify an equity:
+    * The ISIN Identifier (ISIN_ID) constructed as "I{ISIN_ID}".
+    * Private Identifier Code (PRIVATE_ID) constructed as
+      "P{RA_ID}_{PRIVATE_ID}`` where RA_ID is the ESCB_ID of the RA.
+    </t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="n"/>
+      <c r="B3" s="16" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="16" t="n"/>
+      <c r="F3" s="16" t="n"/>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="16" t="n"/>
+      <c r="I3" s="16" t="n"/>
+      <c r="J3" s="16" t="n"/>
+      <c r="K3" s="16" t="n"/>
+      <c r="L3" s="16" t="n"/>
+      <c r="M3" s="16" t="n"/>
+      <c r="N3" s="16" t="n"/>
+      <c r="O3" s="16" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="n"/>
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="16" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="16" t="n"/>
+      <c r="G4" s="16" t="n"/>
+      <c r="H4" s="16" t="n"/>
+      <c r="I4" s="16" t="n"/>
+      <c r="J4" s="16" t="n"/>
+      <c r="K4" s="16" t="n"/>
+      <c r="L4" s="16" t="n"/>
+      <c r="M4" s="16" t="n"/>
+      <c r="N4" s="16" t="n"/>
+      <c r="O4" s="16" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="n"/>
+      <c r="B5" s="16" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="16" t="n"/>
+      <c r="J5" s="16" t="n"/>
+      <c r="K5" s="16" t="n"/>
+      <c r="L5" s="16" t="n"/>
+      <c r="M5" s="16" t="n"/>
+      <c r="N5" s="16" t="n"/>
+      <c r="O5" s="16" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="n"/>
+      <c r="B6" s="16" t="n"/>
+      <c r="C6" s="16" t="n"/>
+      <c r="D6" s="16" t="n"/>
+      <c r="E6" s="16" t="n"/>
+      <c r="F6" s="16" t="n"/>
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="16" t="n"/>
+      <c r="I6" s="16" t="n"/>
+      <c r="J6" s="16" t="n"/>
+      <c r="K6" s="16" t="n"/>
+      <c r="L6" s="16" t="n"/>
+      <c r="M6" s="16" t="n"/>
+      <c r="N6" s="16" t="n"/>
+      <c r="O6" s="16" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="n"/>
+      <c r="B7" s="16" t="n"/>
+      <c r="C7" s="16" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="16" t="n"/>
+      <c r="F7" s="16" t="n"/>
+      <c r="G7" s="16" t="n"/>
+      <c r="H7" s="16" t="n"/>
+      <c r="I7" s="16" t="n"/>
+      <c r="J7" s="16" t="n"/>
+      <c r="K7" s="16" t="n"/>
+      <c r="L7" s="16" t="n"/>
+      <c r="M7" s="16" t="n"/>
+      <c r="N7" s="16" t="n"/>
+      <c r="O7" s="16" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="n"/>
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="16" t="n"/>
+      <c r="F8" s="16" t="n"/>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="16" t="n"/>
+      <c r="I8" s="16" t="n"/>
+      <c r="J8" s="16" t="n"/>
+      <c r="K8" s="16" t="n"/>
+      <c r="L8" s="16" t="n"/>
+      <c r="M8" s="16" t="n"/>
+      <c r="N8" s="16" t="n"/>
+      <c r="O8" s="16" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="n"/>
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="16" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="16" t="n"/>
+      <c r="F9" s="16" t="n"/>
+      <c r="G9" s="16" t="n"/>
+      <c r="H9" s="16" t="n"/>
+      <c r="I9" s="16" t="n"/>
+      <c r="J9" s="16" t="n"/>
+      <c r="K9" s="16" t="n"/>
+      <c r="L9" s="16" t="n"/>
+      <c r="M9" s="16" t="n"/>
+      <c r="N9" s="16" t="n"/>
+      <c r="O9" s="16" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="n"/>
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="16" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="16" t="n"/>
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="16" t="n"/>
+      <c r="I10" s="16" t="n"/>
+      <c r="J10" s="16" t="n"/>
+      <c r="K10" s="16" t="n"/>
+      <c r="L10" s="16" t="n"/>
+      <c r="M10" s="16" t="n"/>
+      <c r="N10" s="16" t="n"/>
+      <c r="O10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="n"/>
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="16" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="16" t="n"/>
+      <c r="F11" s="16" t="n"/>
+      <c r="G11" s="16" t="n"/>
+      <c r="H11" s="16" t="n"/>
+      <c r="I11" s="16" t="n"/>
+      <c r="J11" s="16" t="n"/>
+      <c r="K11" s="16" t="n"/>
+      <c r="L11" s="16" t="n"/>
+      <c r="M11" s="16" t="n"/>
+      <c r="N11" s="16" t="n"/>
+      <c r="O11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="n"/>
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="16" t="n"/>
+      <c r="F12" s="16" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="16" t="n"/>
+      <c r="I12" s="16" t="n"/>
+      <c r="J12" s="16" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="16" t="n"/>
+      <c r="M12" s="16" t="n"/>
+      <c r="N12" s="16" t="n"/>
+      <c r="O12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="n"/>
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="16" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="16" t="n"/>
+      <c r="F13" s="16" t="n"/>
+      <c r="G13" s="16" t="n"/>
+      <c r="H13" s="16" t="n"/>
+      <c r="I13" s="16" t="n"/>
+      <c r="J13" s="16" t="n"/>
+      <c r="K13" s="16" t="n"/>
+      <c r="L13" s="16" t="n"/>
+      <c r="M13" s="16" t="n"/>
+      <c r="N13" s="16" t="n"/>
+      <c r="O13" s="16" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="n"/>
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="16" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="16" t="n"/>
+      <c r="F14" s="16" t="n"/>
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="16" t="n"/>
+      <c r="I14" s="16" t="n"/>
+      <c r="J14" s="16" t="n"/>
+      <c r="K14" s="16" t="n"/>
+      <c r="L14" s="16" t="n"/>
+      <c r="M14" s="16" t="n"/>
+      <c r="N14" s="16" t="n"/>
+      <c r="O14" s="16" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="n"/>
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="16" t="n"/>
+      <c r="D15" s="16" t="n"/>
+      <c r="E15" s="16" t="n"/>
+      <c r="F15" s="16" t="n"/>
+      <c r="G15" s="16" t="n"/>
+      <c r="H15" s="16" t="n"/>
+      <c r="I15" s="16" t="n"/>
+      <c r="J15" s="16" t="n"/>
+      <c r="K15" s="16" t="n"/>
+      <c r="L15" s="16" t="n"/>
+      <c r="M15" s="16" t="n"/>
+      <c r="N15" s="16" t="n"/>
+      <c r="O15" s="16" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="n"/>
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="16" t="n"/>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="16" t="n"/>
+      <c r="I16" s="16" t="n"/>
+      <c r="J16" s="16" t="n"/>
+      <c r="K16" s="16" t="n"/>
+      <c r="L16" s="16" t="n"/>
+      <c r="M16" s="16" t="n"/>
+      <c r="N16" s="16" t="n"/>
+      <c r="O16" s="16" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="n"/>
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="16" t="n"/>
+      <c r="F17" s="16" t="n"/>
+      <c r="G17" s="16" t="n"/>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
+      <c r="J17" s="16" t="n"/>
+      <c r="K17" s="16" t="n"/>
+      <c r="L17" s="16" t="n"/>
+      <c r="M17" s="16" t="n"/>
+      <c r="N17" s="16" t="n"/>
+      <c r="O17" s="16" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="16" t="n"/>
+      <c r="E18" s="16" t="n"/>
+      <c r="F18" s="16" t="n"/>
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
+      <c r="J18" s="16" t="n"/>
+      <c r="K18" s="16" t="n"/>
+      <c r="L18" s="16" t="n"/>
+      <c r="M18" s="16" t="n"/>
+      <c r="N18" s="16" t="n"/>
+      <c r="O18" s="16" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="n"/>
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n"/>
+      <c r="F19" s="16" t="n"/>
+      <c r="G19" s="16" t="n"/>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
+      <c r="J19" s="16" t="n"/>
+      <c r="K19" s="16" t="n"/>
+      <c r="L19" s="16" t="n"/>
+      <c r="M19" s="16" t="n"/>
+      <c r="N19" s="16" t="n"/>
+      <c r="O19" s="16" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="n"/>
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="16" t="n"/>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="16" t="n"/>
+      <c r="F20" s="16" t="n"/>
+      <c r="G20" s="16" t="n"/>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
+      <c r="J20" s="16" t="n"/>
+      <c r="K20" s="16" t="n"/>
+      <c r="L20" s="16" t="n"/>
+      <c r="M20" s="16" t="n"/>
+      <c r="N20" s="16" t="n"/>
+      <c r="O20" s="16" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="n"/>
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="16" t="n"/>
+      <c r="F21" s="16" t="n"/>
+      <c r="G21" s="16" t="n"/>
+      <c r="H21" s="16" t="n"/>
+      <c r="I21" s="16" t="n"/>
+      <c r="J21" s="16" t="n"/>
+      <c r="K21" s="16" t="n"/>
+      <c r="L21" s="16" t="n"/>
+      <c r="M21" s="16" t="n"/>
+      <c r="N21" s="16" t="n"/>
+      <c r="O21" s="16" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="n"/>
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="16" t="n"/>
+      <c r="D22" s="16" t="n"/>
+      <c r="E22" s="16" t="n"/>
+      <c r="F22" s="16" t="n"/>
+      <c r="G22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="n"/>
+      <c r="J22" s="16" t="n"/>
+      <c r="K22" s="16" t="n"/>
+      <c r="L22" s="16" t="n"/>
+      <c r="M22" s="16" t="n"/>
+      <c r="N22" s="16" t="n"/>
+      <c r="O22" s="16" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="n"/>
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="16" t="n"/>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="16" t="n"/>
+      <c r="F23" s="16" t="n"/>
+      <c r="G23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="n"/>
+      <c r="J23" s="16" t="n"/>
+      <c r="K23" s="16" t="n"/>
+      <c r="L23" s="16" t="n"/>
+      <c r="M23" s="16" t="n"/>
+      <c r="N23" s="16" t="n"/>
+      <c r="O23" s="16" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="n"/>
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="16" t="n"/>
+      <c r="D24" s="16" t="n"/>
+      <c r="E24" s="16" t="n"/>
+      <c r="F24" s="16" t="n"/>
+      <c r="G24" s="16" t="n"/>
+      <c r="H24" s="16" t="n"/>
+      <c r="I24" s="16" t="n"/>
+      <c r="J24" s="16" t="n"/>
+      <c r="K24" s="16" t="n"/>
+      <c r="L24" s="16" t="n"/>
+      <c r="M24" s="16" t="n"/>
+      <c r="N24" s="16" t="n"/>
+      <c r="O24" s="16" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="n"/>
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n"/>
+      <c r="F25" s="16" t="n"/>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="16" t="n"/>
+      <c r="I25" s="16" t="n"/>
+      <c r="J25" s="16" t="n"/>
+      <c r="K25" s="16" t="n"/>
+      <c r="L25" s="16" t="n"/>
+      <c r="M25" s="16" t="n"/>
+      <c r="N25" s="16" t="n"/>
+      <c r="O25" s="16" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="n"/>
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n"/>
+      <c r="F26" s="16" t="n"/>
+      <c r="G26" s="16" t="n"/>
+      <c r="H26" s="16" t="n"/>
+      <c r="I26" s="16" t="n"/>
+      <c r="J26" s="16" t="n"/>
+      <c r="K26" s="16" t="n"/>
+      <c r="L26" s="16" t="n"/>
+      <c r="M26" s="16" t="n"/>
+      <c r="N26" s="16" t="n"/>
+      <c r="O26" s="16" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="n"/>
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="16" t="n"/>
+      <c r="D27" s="16" t="n"/>
+      <c r="E27" s="16" t="n"/>
+      <c r="F27" s="16" t="n"/>
+      <c r="G27" s="16" t="n"/>
+      <c r="H27" s="16" t="n"/>
+      <c r="I27" s="16" t="n"/>
+      <c r="J27" s="16" t="n"/>
+      <c r="K27" s="16" t="n"/>
+      <c r="L27" s="16" t="n"/>
+      <c r="M27" s="16" t="n"/>
+      <c r="N27" s="16" t="n"/>
+      <c r="O27" s="16" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="n"/>
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="16" t="n"/>
+      <c r="D28" s="16" t="n"/>
+      <c r="E28" s="16" t="n"/>
+      <c r="F28" s="16" t="n"/>
+      <c r="G28" s="16" t="n"/>
+      <c r="H28" s="16" t="n"/>
+      <c r="I28" s="16" t="n"/>
+      <c r="J28" s="16" t="n"/>
+      <c r="K28" s="16" t="n"/>
+      <c r="L28" s="16" t="n"/>
+      <c r="M28" s="16" t="n"/>
+      <c r="N28" s="16" t="n"/>
+      <c r="O28" s="16" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="n"/>
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="16" t="n"/>
+      <c r="F29" s="16" t="n"/>
+      <c r="G29" s="16" t="n"/>
+      <c r="H29" s="16" t="n"/>
+      <c r="I29" s="16" t="n"/>
+      <c r="J29" s="16" t="n"/>
+      <c r="K29" s="16" t="n"/>
+      <c r="L29" s="16" t="n"/>
+      <c r="M29" s="16" t="n"/>
+      <c r="N29" s="16" t="n"/>
+      <c r="O29" s="16" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="16" t="n"/>
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="16" t="n"/>
+      <c r="D30" s="16" t="n"/>
+      <c r="E30" s="16" t="n"/>
+      <c r="F30" s="16" t="n"/>
+      <c r="G30" s="16" t="n"/>
+      <c r="H30" s="16" t="n"/>
+      <c r="I30" s="16" t="n"/>
+      <c r="J30" s="16" t="n"/>
+      <c r="K30" s="16" t="n"/>
+      <c r="L30" s="16" t="n"/>
+      <c r="M30" s="16" t="n"/>
+      <c r="N30" s="16" t="n"/>
+      <c r="O30" s="16" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="15">
+        <f>HYPERLINK("#DSDS!A1", "Description")</f>
+        <v/>
+      </c>
+      <c r="B1" s="15" t="n"/>
+      <c r="C1" s="15" t="n"/>
+      <c r="D1" s="15" t="n"/>
+      <c r="E1" s="15" t="n"/>
+      <c r="F1" s="15" t="n"/>
+      <c r="G1" s="15" t="n"/>
+      <c r="H1" s="15" t="n"/>
+      <c r="I1" s="15" t="n"/>
+      <c r="J1" s="15" t="n"/>
+      <c r="K1" s="15" t="n"/>
+      <c r="L1" s="15" t="n"/>
+      <c r="M1" s="15" t="n"/>
+      <c r="N1" s="15" t="n"/>
+      <c r="O1" s="15" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        type: date
+        pattern: "{YYYY}-{MM}-{DD}"
+        </t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="n"/>
+      <c r="B3" s="16" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="16" t="n"/>
+      <c r="F3" s="16" t="n"/>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="16" t="n"/>
+      <c r="I3" s="16" t="n"/>
+      <c r="J3" s="16" t="n"/>
+      <c r="K3" s="16" t="n"/>
+      <c r="L3" s="16" t="n"/>
+      <c r="M3" s="16" t="n"/>
+      <c r="N3" s="16" t="n"/>
+      <c r="O3" s="16" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="n"/>
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="16" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="16" t="n"/>
+      <c r="G4" s="16" t="n"/>
+      <c r="H4" s="16" t="n"/>
+      <c r="I4" s="16" t="n"/>
+      <c r="J4" s="16" t="n"/>
+      <c r="K4" s="16" t="n"/>
+      <c r="L4" s="16" t="n"/>
+      <c r="M4" s="16" t="n"/>
+      <c r="N4" s="16" t="n"/>
+      <c r="O4" s="16" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="n"/>
+      <c r="B5" s="16" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="16" t="n"/>
+      <c r="J5" s="16" t="n"/>
+      <c r="K5" s="16" t="n"/>
+      <c r="L5" s="16" t="n"/>
+      <c r="M5" s="16" t="n"/>
+      <c r="N5" s="16" t="n"/>
+      <c r="O5" s="16" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="n"/>
+      <c r="B6" s="16" t="n"/>
+      <c r="C6" s="16" t="n"/>
+      <c r="D6" s="16" t="n"/>
+      <c r="E6" s="16" t="n"/>
+      <c r="F6" s="16" t="n"/>
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="16" t="n"/>
+      <c r="I6" s="16" t="n"/>
+      <c r="J6" s="16" t="n"/>
+      <c r="K6" s="16" t="n"/>
+      <c r="L6" s="16" t="n"/>
+      <c r="M6" s="16" t="n"/>
+      <c r="N6" s="16" t="n"/>
+      <c r="O6" s="16" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="n"/>
+      <c r="B7" s="16" t="n"/>
+      <c r="C7" s="16" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="16" t="n"/>
+      <c r="F7" s="16" t="n"/>
+      <c r="G7" s="16" t="n"/>
+      <c r="H7" s="16" t="n"/>
+      <c r="I7" s="16" t="n"/>
+      <c r="J7" s="16" t="n"/>
+      <c r="K7" s="16" t="n"/>
+      <c r="L7" s="16" t="n"/>
+      <c r="M7" s="16" t="n"/>
+      <c r="N7" s="16" t="n"/>
+      <c r="O7" s="16" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="n"/>
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="16" t="n"/>
+      <c r="F8" s="16" t="n"/>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="16" t="n"/>
+      <c r="I8" s="16" t="n"/>
+      <c r="J8" s="16" t="n"/>
+      <c r="K8" s="16" t="n"/>
+      <c r="L8" s="16" t="n"/>
+      <c r="M8" s="16" t="n"/>
+      <c r="N8" s="16" t="n"/>
+      <c r="O8" s="16" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="n"/>
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="16" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="16" t="n"/>
+      <c r="F9" s="16" t="n"/>
+      <c r="G9" s="16" t="n"/>
+      <c r="H9" s="16" t="n"/>
+      <c r="I9" s="16" t="n"/>
+      <c r="J9" s="16" t="n"/>
+      <c r="K9" s="16" t="n"/>
+      <c r="L9" s="16" t="n"/>
+      <c r="M9" s="16" t="n"/>
+      <c r="N9" s="16" t="n"/>
+      <c r="O9" s="16" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="n"/>
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="16" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="16" t="n"/>
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="16" t="n"/>
+      <c r="I10" s="16" t="n"/>
+      <c r="J10" s="16" t="n"/>
+      <c r="K10" s="16" t="n"/>
+      <c r="L10" s="16" t="n"/>
+      <c r="M10" s="16" t="n"/>
+      <c r="N10" s="16" t="n"/>
+      <c r="O10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="n"/>
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="16" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="16" t="n"/>
+      <c r="F11" s="16" t="n"/>
+      <c r="G11" s="16" t="n"/>
+      <c r="H11" s="16" t="n"/>
+      <c r="I11" s="16" t="n"/>
+      <c r="J11" s="16" t="n"/>
+      <c r="K11" s="16" t="n"/>
+      <c r="L11" s="16" t="n"/>
+      <c r="M11" s="16" t="n"/>
+      <c r="N11" s="16" t="n"/>
+      <c r="O11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="n"/>
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="16" t="n"/>
+      <c r="F12" s="16" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="16" t="n"/>
+      <c r="I12" s="16" t="n"/>
+      <c r="J12" s="16" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="16" t="n"/>
+      <c r="M12" s="16" t="n"/>
+      <c r="N12" s="16" t="n"/>
+      <c r="O12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="n"/>
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="16" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="16" t="n"/>
+      <c r="F13" s="16" t="n"/>
+      <c r="G13" s="16" t="n"/>
+      <c r="H13" s="16" t="n"/>
+      <c r="I13" s="16" t="n"/>
+      <c r="J13" s="16" t="n"/>
+      <c r="K13" s="16" t="n"/>
+      <c r="L13" s="16" t="n"/>
+      <c r="M13" s="16" t="n"/>
+      <c r="N13" s="16" t="n"/>
+      <c r="O13" s="16" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="n"/>
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="16" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="16" t="n"/>
+      <c r="F14" s="16" t="n"/>
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="16" t="n"/>
+      <c r="I14" s="16" t="n"/>
+      <c r="J14" s="16" t="n"/>
+      <c r="K14" s="16" t="n"/>
+      <c r="L14" s="16" t="n"/>
+      <c r="M14" s="16" t="n"/>
+      <c r="N14" s="16" t="n"/>
+      <c r="O14" s="16" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="n"/>
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="16" t="n"/>
+      <c r="D15" s="16" t="n"/>
+      <c r="E15" s="16" t="n"/>
+      <c r="F15" s="16" t="n"/>
+      <c r="G15" s="16" t="n"/>
+      <c r="H15" s="16" t="n"/>
+      <c r="I15" s="16" t="n"/>
+      <c r="J15" s="16" t="n"/>
+      <c r="K15" s="16" t="n"/>
+      <c r="L15" s="16" t="n"/>
+      <c r="M15" s="16" t="n"/>
+      <c r="N15" s="16" t="n"/>
+      <c r="O15" s="16" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="n"/>
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="16" t="n"/>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="16" t="n"/>
+      <c r="I16" s="16" t="n"/>
+      <c r="J16" s="16" t="n"/>
+      <c r="K16" s="16" t="n"/>
+      <c r="L16" s="16" t="n"/>
+      <c r="M16" s="16" t="n"/>
+      <c r="N16" s="16" t="n"/>
+      <c r="O16" s="16" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="n"/>
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="16" t="n"/>
+      <c r="F17" s="16" t="n"/>
+      <c r="G17" s="16" t="n"/>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
+      <c r="J17" s="16" t="n"/>
+      <c r="K17" s="16" t="n"/>
+      <c r="L17" s="16" t="n"/>
+      <c r="M17" s="16" t="n"/>
+      <c r="N17" s="16" t="n"/>
+      <c r="O17" s="16" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="16" t="n"/>
+      <c r="E18" s="16" t="n"/>
+      <c r="F18" s="16" t="n"/>
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
+      <c r="J18" s="16" t="n"/>
+      <c r="K18" s="16" t="n"/>
+      <c r="L18" s="16" t="n"/>
+      <c r="M18" s="16" t="n"/>
+      <c r="N18" s="16" t="n"/>
+      <c r="O18" s="16" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="n"/>
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n"/>
+      <c r="F19" s="16" t="n"/>
+      <c r="G19" s="16" t="n"/>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
+      <c r="J19" s="16" t="n"/>
+      <c r="K19" s="16" t="n"/>
+      <c r="L19" s="16" t="n"/>
+      <c r="M19" s="16" t="n"/>
+      <c r="N19" s="16" t="n"/>
+      <c r="O19" s="16" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="n"/>
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="16" t="n"/>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="16" t="n"/>
+      <c r="F20" s="16" t="n"/>
+      <c r="G20" s="16" t="n"/>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
+      <c r="J20" s="16" t="n"/>
+      <c r="K20" s="16" t="n"/>
+      <c r="L20" s="16" t="n"/>
+      <c r="M20" s="16" t="n"/>
+      <c r="N20" s="16" t="n"/>
+      <c r="O20" s="16" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="n"/>
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="16" t="n"/>
+      <c r="F21" s="16" t="n"/>
+      <c r="G21" s="16" t="n"/>
+      <c r="H21" s="16" t="n"/>
+      <c r="I21" s="16" t="n"/>
+      <c r="J21" s="16" t="n"/>
+      <c r="K21" s="16" t="n"/>
+      <c r="L21" s="16" t="n"/>
+      <c r="M21" s="16" t="n"/>
+      <c r="N21" s="16" t="n"/>
+      <c r="O21" s="16" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="n"/>
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="16" t="n"/>
+      <c r="D22" s="16" t="n"/>
+      <c r="E22" s="16" t="n"/>
+      <c r="F22" s="16" t="n"/>
+      <c r="G22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="n"/>
+      <c r="J22" s="16" t="n"/>
+      <c r="K22" s="16" t="n"/>
+      <c r="L22" s="16" t="n"/>
+      <c r="M22" s="16" t="n"/>
+      <c r="N22" s="16" t="n"/>
+      <c r="O22" s="16" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="n"/>
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="16" t="n"/>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="16" t="n"/>
+      <c r="F23" s="16" t="n"/>
+      <c r="G23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="n"/>
+      <c r="J23" s="16" t="n"/>
+      <c r="K23" s="16" t="n"/>
+      <c r="L23" s="16" t="n"/>
+      <c r="M23" s="16" t="n"/>
+      <c r="N23" s="16" t="n"/>
+      <c r="O23" s="16" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="n"/>
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="16" t="n"/>
+      <c r="D24" s="16" t="n"/>
+      <c r="E24" s="16" t="n"/>
+      <c r="F24" s="16" t="n"/>
+      <c r="G24" s="16" t="n"/>
+      <c r="H24" s="16" t="n"/>
+      <c r="I24" s="16" t="n"/>
+      <c r="J24" s="16" t="n"/>
+      <c r="K24" s="16" t="n"/>
+      <c r="L24" s="16" t="n"/>
+      <c r="M24" s="16" t="n"/>
+      <c r="N24" s="16" t="n"/>
+      <c r="O24" s="16" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="n"/>
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n"/>
+      <c r="F25" s="16" t="n"/>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="16" t="n"/>
+      <c r="I25" s="16" t="n"/>
+      <c r="J25" s="16" t="n"/>
+      <c r="K25" s="16" t="n"/>
+      <c r="L25" s="16" t="n"/>
+      <c r="M25" s="16" t="n"/>
+      <c r="N25" s="16" t="n"/>
+      <c r="O25" s="16" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="n"/>
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n"/>
+      <c r="F26" s="16" t="n"/>
+      <c r="G26" s="16" t="n"/>
+      <c r="H26" s="16" t="n"/>
+      <c r="I26" s="16" t="n"/>
+      <c r="J26" s="16" t="n"/>
+      <c r="K26" s="16" t="n"/>
+      <c r="L26" s="16" t="n"/>
+      <c r="M26" s="16" t="n"/>
+      <c r="N26" s="16" t="n"/>
+      <c r="O26" s="16" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="n"/>
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="16" t="n"/>
+      <c r="D27" s="16" t="n"/>
+      <c r="E27" s="16" t="n"/>
+      <c r="F27" s="16" t="n"/>
+      <c r="G27" s="16" t="n"/>
+      <c r="H27" s="16" t="n"/>
+      <c r="I27" s="16" t="n"/>
+      <c r="J27" s="16" t="n"/>
+      <c r="K27" s="16" t="n"/>
+      <c r="L27" s="16" t="n"/>
+      <c r="M27" s="16" t="n"/>
+      <c r="N27" s="16" t="n"/>
+      <c r="O27" s="16" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="n"/>
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="16" t="n"/>
+      <c r="D28" s="16" t="n"/>
+      <c r="E28" s="16" t="n"/>
+      <c r="F28" s="16" t="n"/>
+      <c r="G28" s="16" t="n"/>
+      <c r="H28" s="16" t="n"/>
+      <c r="I28" s="16" t="n"/>
+      <c r="J28" s="16" t="n"/>
+      <c r="K28" s="16" t="n"/>
+      <c r="L28" s="16" t="n"/>
+      <c r="M28" s="16" t="n"/>
+      <c r="N28" s="16" t="n"/>
+      <c r="O28" s="16" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="n"/>
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="16" t="n"/>
+      <c r="F29" s="16" t="n"/>
+      <c r="G29" s="16" t="n"/>
+      <c r="H29" s="16" t="n"/>
+      <c r="I29" s="16" t="n"/>
+      <c r="J29" s="16" t="n"/>
+      <c r="K29" s="16" t="n"/>
+      <c r="L29" s="16" t="n"/>
+      <c r="M29" s="16" t="n"/>
+      <c r="N29" s="16" t="n"/>
+      <c r="O29" s="16" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="16" t="n"/>
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="16" t="n"/>
+      <c r="D30" s="16" t="n"/>
+      <c r="E30" s="16" t="n"/>
+      <c r="F30" s="16" t="n"/>
+      <c r="G30" s="16" t="n"/>
+      <c r="H30" s="16" t="n"/>
+      <c r="I30" s="16" t="n"/>
+      <c r="J30" s="16" t="n"/>
+      <c r="K30" s="16" t="n"/>
+      <c r="L30" s="16" t="n"/>
+      <c r="M30" s="16" t="n"/>
+      <c r="N30" s="16" t="n"/>
+      <c r="O30" s="16" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="15">
+        <f>HYPERLINK("#DSDS!A1", "Description")</f>
+        <v/>
+      </c>
+      <c r="B1" s="15" t="n"/>
+      <c r="C1" s="15" t="n"/>
+      <c r="D1" s="15" t="n"/>
+      <c r="E1" s="15" t="n"/>
+      <c r="F1" s="15" t="n"/>
+      <c r="G1" s="15" t="n"/>
+      <c r="H1" s="15" t="n"/>
+      <c r="I1" s="15" t="n"/>
+      <c r="J1" s="15" t="n"/>
+      <c r="K1" s="15" t="n"/>
+      <c r="L1" s="15" t="n"/>
+      <c r="M1" s="15" t="n"/>
+      <c r="N1" s="15" t="n"/>
+      <c r="O1" s="15" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        type: NonNegativeFloat
+        </t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="n"/>
+      <c r="B3" s="16" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="16" t="n"/>
+      <c r="F3" s="16" t="n"/>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="16" t="n"/>
+      <c r="I3" s="16" t="n"/>
+      <c r="J3" s="16" t="n"/>
+      <c r="K3" s="16" t="n"/>
+      <c r="L3" s="16" t="n"/>
+      <c r="M3" s="16" t="n"/>
+      <c r="N3" s="16" t="n"/>
+      <c r="O3" s="16" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="n"/>
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="16" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="16" t="n"/>
+      <c r="G4" s="16" t="n"/>
+      <c r="H4" s="16" t="n"/>
+      <c r="I4" s="16" t="n"/>
+      <c r="J4" s="16" t="n"/>
+      <c r="K4" s="16" t="n"/>
+      <c r="L4" s="16" t="n"/>
+      <c r="M4" s="16" t="n"/>
+      <c r="N4" s="16" t="n"/>
+      <c r="O4" s="16" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="n"/>
+      <c r="B5" s="16" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="16" t="n"/>
+      <c r="J5" s="16" t="n"/>
+      <c r="K5" s="16" t="n"/>
+      <c r="L5" s="16" t="n"/>
+      <c r="M5" s="16" t="n"/>
+      <c r="N5" s="16" t="n"/>
+      <c r="O5" s="16" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="n"/>
+      <c r="B6" s="16" t="n"/>
+      <c r="C6" s="16" t="n"/>
+      <c r="D6" s="16" t="n"/>
+      <c r="E6" s="16" t="n"/>
+      <c r="F6" s="16" t="n"/>
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="16" t="n"/>
+      <c r="I6" s="16" t="n"/>
+      <c r="J6" s="16" t="n"/>
+      <c r="K6" s="16" t="n"/>
+      <c r="L6" s="16" t="n"/>
+      <c r="M6" s="16" t="n"/>
+      <c r="N6" s="16" t="n"/>
+      <c r="O6" s="16" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="n"/>
+      <c r="B7" s="16" t="n"/>
+      <c r="C7" s="16" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="16" t="n"/>
+      <c r="F7" s="16" t="n"/>
+      <c r="G7" s="16" t="n"/>
+      <c r="H7" s="16" t="n"/>
+      <c r="I7" s="16" t="n"/>
+      <c r="J7" s="16" t="n"/>
+      <c r="K7" s="16" t="n"/>
+      <c r="L7" s="16" t="n"/>
+      <c r="M7" s="16" t="n"/>
+      <c r="N7" s="16" t="n"/>
+      <c r="O7" s="16" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="n"/>
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="16" t="n"/>
+      <c r="F8" s="16" t="n"/>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="16" t="n"/>
+      <c r="I8" s="16" t="n"/>
+      <c r="J8" s="16" t="n"/>
+      <c r="K8" s="16" t="n"/>
+      <c r="L8" s="16" t="n"/>
+      <c r="M8" s="16" t="n"/>
+      <c r="N8" s="16" t="n"/>
+      <c r="O8" s="16" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="n"/>
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="16" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="16" t="n"/>
+      <c r="F9" s="16" t="n"/>
+      <c r="G9" s="16" t="n"/>
+      <c r="H9" s="16" t="n"/>
+      <c r="I9" s="16" t="n"/>
+      <c r="J9" s="16" t="n"/>
+      <c r="K9" s="16" t="n"/>
+      <c r="L9" s="16" t="n"/>
+      <c r="M9" s="16" t="n"/>
+      <c r="N9" s="16" t="n"/>
+      <c r="O9" s="16" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="n"/>
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="16" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="16" t="n"/>
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="16" t="n"/>
+      <c r="I10" s="16" t="n"/>
+      <c r="J10" s="16" t="n"/>
+      <c r="K10" s="16" t="n"/>
+      <c r="L10" s="16" t="n"/>
+      <c r="M10" s="16" t="n"/>
+      <c r="N10" s="16" t="n"/>
+      <c r="O10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="n"/>
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="16" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="16" t="n"/>
+      <c r="F11" s="16" t="n"/>
+      <c r="G11" s="16" t="n"/>
+      <c r="H11" s="16" t="n"/>
+      <c r="I11" s="16" t="n"/>
+      <c r="J11" s="16" t="n"/>
+      <c r="K11" s="16" t="n"/>
+      <c r="L11" s="16" t="n"/>
+      <c r="M11" s="16" t="n"/>
+      <c r="N11" s="16" t="n"/>
+      <c r="O11" s="16" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="n"/>
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="16" t="n"/>
+      <c r="F12" s="16" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="16" t="n"/>
+      <c r="I12" s="16" t="n"/>
+      <c r="J12" s="16" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="16" t="n"/>
+      <c r="M12" s="16" t="n"/>
+      <c r="N12" s="16" t="n"/>
+      <c r="O12" s="16" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="n"/>
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="16" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="16" t="n"/>
+      <c r="F13" s="16" t="n"/>
+      <c r="G13" s="16" t="n"/>
+      <c r="H13" s="16" t="n"/>
+      <c r="I13" s="16" t="n"/>
+      <c r="J13" s="16" t="n"/>
+      <c r="K13" s="16" t="n"/>
+      <c r="L13" s="16" t="n"/>
+      <c r="M13" s="16" t="n"/>
+      <c r="N13" s="16" t="n"/>
+      <c r="O13" s="16" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="n"/>
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="16" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="16" t="n"/>
+      <c r="F14" s="16" t="n"/>
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="16" t="n"/>
+      <c r="I14" s="16" t="n"/>
+      <c r="J14" s="16" t="n"/>
+      <c r="K14" s="16" t="n"/>
+      <c r="L14" s="16" t="n"/>
+      <c r="M14" s="16" t="n"/>
+      <c r="N14" s="16" t="n"/>
+      <c r="O14" s="16" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="n"/>
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="16" t="n"/>
+      <c r="D15" s="16" t="n"/>
+      <c r="E15" s="16" t="n"/>
+      <c r="F15" s="16" t="n"/>
+      <c r="G15" s="16" t="n"/>
+      <c r="H15" s="16" t="n"/>
+      <c r="I15" s="16" t="n"/>
+      <c r="J15" s="16" t="n"/>
+      <c r="K15" s="16" t="n"/>
+      <c r="L15" s="16" t="n"/>
+      <c r="M15" s="16" t="n"/>
+      <c r="N15" s="16" t="n"/>
+      <c r="O15" s="16" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="n"/>
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="16" t="n"/>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="16" t="n"/>
+      <c r="I16" s="16" t="n"/>
+      <c r="J16" s="16" t="n"/>
+      <c r="K16" s="16" t="n"/>
+      <c r="L16" s="16" t="n"/>
+      <c r="M16" s="16" t="n"/>
+      <c r="N16" s="16" t="n"/>
+      <c r="O16" s="16" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="n"/>
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="16" t="n"/>
+      <c r="F17" s="16" t="n"/>
+      <c r="G17" s="16" t="n"/>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
+      <c r="J17" s="16" t="n"/>
+      <c r="K17" s="16" t="n"/>
+      <c r="L17" s="16" t="n"/>
+      <c r="M17" s="16" t="n"/>
+      <c r="N17" s="16" t="n"/>
+      <c r="O17" s="16" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="16" t="n"/>
+      <c r="E18" s="16" t="n"/>
+      <c r="F18" s="16" t="n"/>
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
+      <c r="J18" s="16" t="n"/>
+      <c r="K18" s="16" t="n"/>
+      <c r="L18" s="16" t="n"/>
+      <c r="M18" s="16" t="n"/>
+      <c r="N18" s="16" t="n"/>
+      <c r="O18" s="16" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="n"/>
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n"/>
+      <c r="F19" s="16" t="n"/>
+      <c r="G19" s="16" t="n"/>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
+      <c r="J19" s="16" t="n"/>
+      <c r="K19" s="16" t="n"/>
+      <c r="L19" s="16" t="n"/>
+      <c r="M19" s="16" t="n"/>
+      <c r="N19" s="16" t="n"/>
+      <c r="O19" s="16" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="n"/>
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="16" t="n"/>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="16" t="n"/>
+      <c r="F20" s="16" t="n"/>
+      <c r="G20" s="16" t="n"/>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
+      <c r="J20" s="16" t="n"/>
+      <c r="K20" s="16" t="n"/>
+      <c r="L20" s="16" t="n"/>
+      <c r="M20" s="16" t="n"/>
+      <c r="N20" s="16" t="n"/>
+      <c r="O20" s="16" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="n"/>
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="16" t="n"/>
+      <c r="F21" s="16" t="n"/>
+      <c r="G21" s="16" t="n"/>
+      <c r="H21" s="16" t="n"/>
+      <c r="I21" s="16" t="n"/>
+      <c r="J21" s="16" t="n"/>
+      <c r="K21" s="16" t="n"/>
+      <c r="L21" s="16" t="n"/>
+      <c r="M21" s="16" t="n"/>
+      <c r="N21" s="16" t="n"/>
+      <c r="O21" s="16" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="n"/>
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="16" t="n"/>
+      <c r="D22" s="16" t="n"/>
+      <c r="E22" s="16" t="n"/>
+      <c r="F22" s="16" t="n"/>
+      <c r="G22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="n"/>
+      <c r="J22" s="16" t="n"/>
+      <c r="K22" s="16" t="n"/>
+      <c r="L22" s="16" t="n"/>
+      <c r="M22" s="16" t="n"/>
+      <c r="N22" s="16" t="n"/>
+      <c r="O22" s="16" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="n"/>
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="16" t="n"/>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="16" t="n"/>
+      <c r="F23" s="16" t="n"/>
+      <c r="G23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="n"/>
+      <c r="J23" s="16" t="n"/>
+      <c r="K23" s="16" t="n"/>
+      <c r="L23" s="16" t="n"/>
+      <c r="M23" s="16" t="n"/>
+      <c r="N23" s="16" t="n"/>
+      <c r="O23" s="16" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="n"/>
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="16" t="n"/>
+      <c r="D24" s="16" t="n"/>
+      <c r="E24" s="16" t="n"/>
+      <c r="F24" s="16" t="n"/>
+      <c r="G24" s="16" t="n"/>
+      <c r="H24" s="16" t="n"/>
+      <c r="I24" s="16" t="n"/>
+      <c r="J24" s="16" t="n"/>
+      <c r="K24" s="16" t="n"/>
+      <c r="L24" s="16" t="n"/>
+      <c r="M24" s="16" t="n"/>
+      <c r="N24" s="16" t="n"/>
+      <c r="O24" s="16" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="n"/>
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n"/>
+      <c r="F25" s="16" t="n"/>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="16" t="n"/>
+      <c r="I25" s="16" t="n"/>
+      <c r="J25" s="16" t="n"/>
+      <c r="K25" s="16" t="n"/>
+      <c r="L25" s="16" t="n"/>
+      <c r="M25" s="16" t="n"/>
+      <c r="N25" s="16" t="n"/>
+      <c r="O25" s="16" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="n"/>
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n"/>
+      <c r="F26" s="16" t="n"/>
+      <c r="G26" s="16" t="n"/>
+      <c r="H26" s="16" t="n"/>
+      <c r="I26" s="16" t="n"/>
+      <c r="J26" s="16" t="n"/>
+      <c r="K26" s="16" t="n"/>
+      <c r="L26" s="16" t="n"/>
+      <c r="M26" s="16" t="n"/>
+      <c r="N26" s="16" t="n"/>
+      <c r="O26" s="16" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="n"/>
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="16" t="n"/>
+      <c r="D27" s="16" t="n"/>
+      <c r="E27" s="16" t="n"/>
+      <c r="F27" s="16" t="n"/>
+      <c r="G27" s="16" t="n"/>
+      <c r="H27" s="16" t="n"/>
+      <c r="I27" s="16" t="n"/>
+      <c r="J27" s="16" t="n"/>
+      <c r="K27" s="16" t="n"/>
+      <c r="L27" s="16" t="n"/>
+      <c r="M27" s="16" t="n"/>
+      <c r="N27" s="16" t="n"/>
+      <c r="O27" s="16" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="n"/>
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="16" t="n"/>
+      <c r="D28" s="16" t="n"/>
+      <c r="E28" s="16" t="n"/>
+      <c r="F28" s="16" t="n"/>
+      <c r="G28" s="16" t="n"/>
+      <c r="H28" s="16" t="n"/>
+      <c r="I28" s="16" t="n"/>
+      <c r="J28" s="16" t="n"/>
+      <c r="K28" s="16" t="n"/>
+      <c r="L28" s="16" t="n"/>
+      <c r="M28" s="16" t="n"/>
+      <c r="N28" s="16" t="n"/>
+      <c r="O28" s="16" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="n"/>
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="16" t="n"/>
+      <c r="F29" s="16" t="n"/>
+      <c r="G29" s="16" t="n"/>
+      <c r="H29" s="16" t="n"/>
+      <c r="I29" s="16" t="n"/>
+      <c r="J29" s="16" t="n"/>
+      <c r="K29" s="16" t="n"/>
+      <c r="L29" s="16" t="n"/>
+      <c r="M29" s="16" t="n"/>
+      <c r="N29" s="16" t="n"/>
+      <c r="O29" s="16" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="16" t="n"/>
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="16" t="n"/>
+      <c r="D30" s="16" t="n"/>
+      <c r="E30" s="16" t="n"/>
+      <c r="F30" s="16" t="n"/>
+      <c r="G30" s="16" t="n"/>
+      <c r="H30" s="16" t="n"/>
+      <c r="I30" s="16" t="n"/>
+      <c r="J30" s="16" t="n"/>
+      <c r="K30" s="16" t="n"/>
+      <c r="L30" s="16" t="n"/>
+      <c r="M30" s="16" t="n"/>
+      <c r="N30" s="16" t="n"/>
+      <c r="O30" s="16" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1818,11 +4307,11 @@
         <f>HYPERLINK("#DSDS!A1", "ID")</f>
         <v/>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="10">
         <f>HYPERLINK("#MEASURES!A1", "NAME")</f>
         <v/>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="10">
         <f>HYPERLINK("#DIMS!A1", "DESCRIPTION")</f>
         <v/>
       </c>
@@ -1833,12 +4322,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>Reset</t>
         </is>
       </c>
-      <c r="C2" s="15" t="inlineStr">
+      <c r="C2" s="17" t="inlineStr">
         <is>
           <t>Reset value</t>
         </is>
@@ -1850,12 +4339,12 @@
           <t>R1</t>
         </is>
       </c>
-      <c r="B3" s="16" t="inlineStr">
+      <c r="B3" s="18" t="inlineStr">
         <is>
           <t>Interest received</t>
         </is>
       </c>
-      <c r="C3" s="16" t="inlineStr">
+      <c r="C3" s="18" t="inlineStr">
         <is>
           <t>Interest received</t>
         </is>
@@ -1867,12 +4356,12 @@
           <t>R2</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B4" s="17" t="inlineStr">
         <is>
           <t>Dividends received</t>
         </is>
       </c>
-      <c r="C4" s="15" t="inlineStr">
+      <c r="C4" s="17" t="inlineStr">
         <is>
           <t>Dividends received</t>
         </is>
@@ -1884,12 +4373,12 @@
           <t>R3</t>
         </is>
       </c>
-      <c r="B5" s="16" t="inlineStr">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Rents received</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
+      <c r="C5" s="18" t="inlineStr">
         <is>
           <t>Rents received</t>
         </is>
@@ -1901,12 +4390,12 @@
           <t>R4</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B6" s="17" t="inlineStr">
         <is>
           <t>Reinvested earnings on FDI</t>
         </is>
       </c>
-      <c r="C6" s="15" t="inlineStr">
+      <c r="C6" s="17" t="inlineStr">
         <is>
           <t>Reinvested earnings on FDI</t>
         </is>
@@ -1918,12 +4407,12 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Investment income attributable to policy holders in insurance, standardized guarantees and pension funds</t>
         </is>
       </c>
-      <c r="C7" s="16" t="inlineStr">
+      <c r="C7" s="18" t="inlineStr">
         <is>
           <t>Investment income attributable to policy holders in insurance, standardized guarantees and pension funds</t>
         </is>
@@ -1933,827 +4422,4 @@
   <autoFilter ref="A1:C7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="6.5" customWidth="1" min="1" max="1"/>
-    <col width="29.9" customWidth="1" min="2" max="2"/>
-    <col width="85" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="42" customHeight="1">
-      <c r="A1" s="2">
-        <f>HYPERLINK("#DSDS!A1", "ID")</f>
-        <v/>
-      </c>
-      <c r="B1" s="3">
-        <f>HYPERLINK("#MEASURES!A1", "NAME")</f>
-        <v/>
-      </c>
-      <c r="C1" s="12">
-        <f>HYPERLINK("#DIMS!A1", "DESCRIPTION")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" ht="36" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>Reset</t>
-        </is>
-      </c>
-      <c r="C2" s="15" t="inlineStr">
-        <is>
-          <t>Reset value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="36" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Annual</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>Annual</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="36" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>Daily - businessweek</t>
-        </is>
-      </c>
-      <c r="C4" s="15" t="inlineStr">
-        <is>
-          <t>Daily - businessweek</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="36" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>Daily</t>
-        </is>
-      </c>
-      <c r="C5" s="16" t="inlineStr">
-        <is>
-          <t>Daily</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="36" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>Hourly</t>
-        </is>
-      </c>
-      <c r="C6" s="15" t="inlineStr">
-        <is>
-          <t>Hourly</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="36" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="C7" s="16" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="36" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="inlineStr">
-        <is>
-          <t>Minutely</t>
-        </is>
-      </c>
-      <c r="C8" s="15" t="inlineStr">
-        <is>
-          <t>Minutely</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="36" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>Quarterly</t>
-        </is>
-      </c>
-      <c r="C9" s="16" t="inlineStr">
-        <is>
-          <t>Quarterly</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="36" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="inlineStr">
-        <is>
-          <t>Half-yearly, semester</t>
-        </is>
-      </c>
-      <c r="C10" s="15" t="inlineStr">
-        <is>
-          <t>Half-yearly, semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="36" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="B11" s="11" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="C11" s="16" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="36" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="B12" s="9" t="inlineStr">
-        <is>
-          <t>Biennial</t>
-        </is>
-      </c>
-      <c r="C12" s="15" t="inlineStr">
-        <is>
-          <t>Biennial</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="36" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t>Triennial</t>
-        </is>
-      </c>
-      <c r="C13" s="16" t="inlineStr">
-        <is>
-          <t>Triennial</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="36" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="inlineStr">
-        <is>
-          <t>Quadrennial</t>
-        </is>
-      </c>
-      <c r="C14" s="15" t="inlineStr">
-        <is>
-          <t>Quadrennial</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="36" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="B15" s="11" t="inlineStr">
-        <is>
-          <t>Quinquennial</t>
-        </is>
-      </c>
-      <c r="C15" s="16" t="inlineStr">
-        <is>
-          <t>Quinquennial</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="36" customHeight="1">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>A10</t>
-        </is>
-      </c>
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>Decennial</t>
-        </is>
-      </c>
-      <c r="C16" s="15" t="inlineStr">
-        <is>
-          <t>Decennial</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="36" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>A20</t>
-        </is>
-      </c>
-      <c r="B17" s="11" t="inlineStr">
-        <is>
-          <t>Bidecennial</t>
-        </is>
-      </c>
-      <c r="C17" s="16" t="inlineStr">
-        <is>
-          <t>Bidecennial</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="36" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>A30</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="inlineStr">
-        <is>
-          <t>Tridecennial</t>
-        </is>
-      </c>
-      <c r="C18" s="15" t="inlineStr">
-        <is>
-          <t>Tridecennial</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="36" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>A_3</t>
-        </is>
-      </c>
-      <c r="B19" s="11" t="inlineStr">
-        <is>
-          <t>Three times a year</t>
-        </is>
-      </c>
-      <c r="C19" s="16" t="inlineStr">
-        <is>
-          <t>Three times a year</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="36" customHeight="1">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="inlineStr">
-        <is>
-          <t>Bimonthly</t>
-        </is>
-      </c>
-      <c r="C20" s="15" t="inlineStr">
-        <is>
-          <t>Bimonthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="36" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>M_2</t>
-        </is>
-      </c>
-      <c r="B21" s="11" t="inlineStr">
-        <is>
-          <t>Semimonthly</t>
-        </is>
-      </c>
-      <c r="C21" s="16" t="inlineStr">
-        <is>
-          <t>Semimonthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="36" customHeight="1">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>M_3</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="inlineStr">
-        <is>
-          <t>Three times a month</t>
-        </is>
-      </c>
-      <c r="C22" s="15" t="inlineStr">
-        <is>
-          <t>Three times a month</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="36" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-      <c r="B23" s="11" t="inlineStr">
-        <is>
-          <t>Biweekly</t>
-        </is>
-      </c>
-      <c r="C23" s="16" t="inlineStr">
-        <is>
-          <t>Biweekly</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="36" customHeight="1">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>Triweekly</t>
-        </is>
-      </c>
-      <c r="C24" s="15" t="inlineStr">
-        <is>
-          <t>Triweekly</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="36" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-      <c r="B25" s="11" t="inlineStr">
-        <is>
-          <t>Four-weekly</t>
-        </is>
-      </c>
-      <c r="C25" s="16" t="inlineStr">
-        <is>
-          <t>Four-weekly</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="36" customHeight="1">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>W_2</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>Semiweekly</t>
-        </is>
-      </c>
-      <c r="C26" s="15" t="inlineStr">
-        <is>
-          <t>Semiweekly</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="36" customHeight="1">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>W_3</t>
-        </is>
-      </c>
-      <c r="B27" s="11" t="inlineStr">
-        <is>
-          <t>Three times a week</t>
-        </is>
-      </c>
-      <c r="C27" s="16" t="inlineStr">
-        <is>
-          <t>Three times a week</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="36" customHeight="1">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>D_2</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>Twice a day</t>
-        </is>
-      </c>
-      <c r="C28" s="15" t="inlineStr">
-        <is>
-          <t>Twice a day</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="36" customHeight="1">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-      <c r="B29" s="11" t="inlineStr">
-        <is>
-          <t>Bihourly</t>
-        </is>
-      </c>
-      <c r="C29" s="16" t="inlineStr">
-        <is>
-          <t>Bihourly</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="36" customHeight="1">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="inlineStr">
-        <is>
-          <t>Trihourly</t>
-        </is>
-      </c>
-      <c r="C30" s="15" t="inlineStr">
-        <is>
-          <t>Trihourly</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="36" customHeight="1">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="B31" s="11" t="inlineStr">
-        <is>
-          <t>Irregular</t>
-        </is>
-      </c>
-      <c r="C31" s="16" t="inlineStr">
-        <is>
-          <t>Irregular</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="36" customHeight="1">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>OA</t>
-        </is>
-      </c>
-      <c r="B32" s="9" t="inlineStr">
-        <is>
-          <t>Occasional annual</t>
-        </is>
-      </c>
-      <c r="C32" s="15" t="inlineStr">
-        <is>
-          <t>Occasional annual</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="36" customHeight="1">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>OM</t>
-        </is>
-      </c>
-      <c r="B33" s="11" t="inlineStr">
-        <is>
-          <t>Occasional monthly</t>
-        </is>
-      </c>
-      <c r="C33" s="16" t="inlineStr">
-        <is>
-          <t>Occasional monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="36" customHeight="1">
-      <c r="A34" s="4" t="inlineStr">
-        <is>
-          <t>_O</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="C34" s="15" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="36" customHeight="1">
-      <c r="A35" s="6" t="inlineStr">
-        <is>
-          <t>_U</t>
-        </is>
-      </c>
-      <c r="B35" s="11" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-      <c r="C35" s="16" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="36" customHeight="1">
-      <c r="A36" s="4" t="inlineStr">
-        <is>
-          <t>_Z</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="C36" s="15" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C36"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="5.2" customWidth="1" min="1" max="1"/>
-    <col width="44.2" customWidth="1" min="2" max="2"/>
-    <col width="85" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="42" customHeight="1">
-      <c r="A1" s="2">
-        <f>HYPERLINK("#DSDS!A1", "ID")</f>
-        <v/>
-      </c>
-      <c r="B1" s="12">
-        <f>HYPERLINK("#MEASURES!A1", "NAME")</f>
-        <v/>
-      </c>
-      <c r="C1" s="12">
-        <f>HYPERLINK("#DIMS!A1", "DESCRIPTION")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" ht="36" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B2" s="15" t="inlineStr">
-        <is>
-          <t>Normal value</t>
-        </is>
-      </c>
-      <c r="C2" s="15" t="inlineStr">
-        <is>
-          <t>Normal value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="36" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>Estimated value</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>Estimated value</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="36" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="B4" s="15" t="inlineStr">
-        <is>
-          <t>Missing value; data cannot exist</t>
-        </is>
-      </c>
-      <c r="C4" s="15" t="inlineStr">
-        <is>
-          <t>Missing value; data cannot exist</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="36" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="B5" s="16" t="inlineStr">
-        <is>
-          <t>Missing value</t>
-        </is>
-      </c>
-      <c r="C5" s="16" t="inlineStr">
-        <is>
-          <t>Missing value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C5"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="5.2" customWidth="1" min="1" max="1"/>
-    <col width="49.4" customWidth="1" min="2" max="2"/>
-    <col width="85" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="42" customHeight="1">
-      <c r="A1" s="2">
-        <f>HYPERLINK("#DSDS!A1", "ID")</f>
-        <v/>
-      </c>
-      <c r="B1" s="12">
-        <f>HYPERLINK("#MEASURES!A1", "NAME")</f>
-        <v/>
-      </c>
-      <c r="C1" s="12">
-        <f>HYPERLINK("#DIMS!A1", "DESCRIPTION")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" ht="36" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B2" s="15" t="inlineStr">
-        <is>
-          <t>Confidential statistical information</t>
-        </is>
-      </c>
-      <c r="C2" s="15" t="inlineStr">
-        <is>
-          <t>Confidential statistical information</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="36" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>Free (free for publication)</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>Free (free for publication)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C3"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>